--- a/flows/SJNK_fund_flow_data.xlsx
+++ b/flows/SJNK_fund_flow_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3012"/>
+  <dimension ref="A1:B3024"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30555,6 +30555,126 @@
         <v>22.62554</v>
       </c>
     </row>
+    <row r="3013">
+      <c r="A3013" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B3013" t="n">
+        <v>15.08274</v>
+      </c>
+    </row>
+    <row r="3014">
+      <c r="A3014" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B3014" t="n">
+        <v>45.275078</v>
+      </c>
+    </row>
+    <row r="3015">
+      <c r="A3015" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B3015" t="n">
+        <v>30.042946</v>
+      </c>
+    </row>
+    <row r="3016">
+      <c r="A3016" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B3016" t="n">
+        <v>-15.031243</v>
+      </c>
+    </row>
+    <row r="3017">
+      <c r="A3017" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B3017" t="n">
+        <v>15.035865</v>
+      </c>
+    </row>
+    <row r="3018">
+      <c r="A3018" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B3018" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3019">
+      <c r="A3019" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B3019" t="n">
+        <v>-22.60632</v>
+      </c>
+    </row>
+    <row r="3020">
+      <c r="A3020" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B3020" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3021">
+      <c r="A3021" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B3021" t="n">
+        <v>52.787445</v>
+      </c>
+    </row>
+    <row r="3022">
+      <c r="A3022" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B3022" t="n">
+        <v>15.085595</v>
+      </c>
+    </row>
+    <row r="3023">
+      <c r="A3023" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B3023" t="n">
+        <v>75.4853</v>
+      </c>
+    </row>
+    <row r="3024">
+      <c r="A3024" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="B3024" t="n">
+        <v>-75.35975000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
